--- a/public/static/uploads/TEST.xlsx
+++ b/public/static/uploads/TEST.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E0A84-3321-4A31-B263-BE7223159EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC51DC9-069D-4E4C-AA23-83A574E44B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{393F64EA-78CF-4562-9603-26ED874EB37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>titre</t>
   </si>
@@ -316,9 +327,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>image</t>
   </si>
 </sst>
 </file>
@@ -379,265 +387,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>508000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9FB719-BDA5-53D7-CA8D-7A0C2BCE34A9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12922250" y="215900"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65389671-BA91-4225-95A7-446BB6C5160D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12922250" y="793750"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EF81BAB-51F7-4DEF-9BC5-86E9A3DA4AB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12884150" y="1339850"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8F3B3E-DAB8-4961-8024-E93031AFB534}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12884150" y="1885950"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>520700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Image 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EAB184C-5AB8-48FD-BE2E-A7F8AAB18FCD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12890500" y="2451100"/>
-          <a:ext cx="476250" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}" name="Tableau2" displayName="Tableau2" ref="A1:K21" totalsRowShown="0">
-  <autoFilter ref="A1:K21" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}" name="Tableau2" displayName="Tableau2" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{BD3325C1-6333-464A-90AA-F6FA45C0C0CC}" name="titre"/>
     <tableColumn id="2" xr3:uid="{7E5A3177-9629-4487-A918-1D285D0CFBA1}" name="name"/>
     <tableColumn id="3" xr3:uid="{A129C5B6-9E38-46D0-B103-AF0EC7340BF5}" name="qty"/>
@@ -648,7 +401,6 @@
     <tableColumn id="8" xr3:uid="{A1C9D3C6-5087-4973-879B-58F504F718DD}" name="po"/>
     <tableColumn id="9" xr3:uid="{19423DF3-92E4-4CDC-A338-71BA9E7322BA}" name="coloris"/>
     <tableColumn id="10" xr3:uid="{740AC26D-B256-423B-9040-341558B8C1BC}" name="id"/>
-    <tableColumn id="11" xr3:uid="{1E4F9474-C7AB-4224-9595-67CD2E22562A}" name="image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -971,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33853D51-7360-4E02-82C9-88F8BDB946D4}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,7 +737,7 @@
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1016,11 +768,8 @@
       <c r="J1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1046,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1072,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1098,7 +847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1228,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1332,7 +1081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1358,7 +1107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1544,9 +1293,8 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/public/static/uploads/TEST.xlsx
+++ b/public/static/uploads/TEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC51DC9-069D-4E4C-AA23-83A574E44B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1063EA2B-1558-48B2-B234-EC17E7DDC39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{393F64EA-78CF-4562-9603-26ED874EB37B}"/>
   </bookViews>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
-  <si>
-    <t>titre</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>qty</t>
-  </si>
-  <si>
-    <t>date_reception_bon_commande</t>
-  </si>
-  <si>
-    <t>date_livraison_commande</t>
-  </si>
-  <si>
-    <t>descriptions</t>
-  </si>
-  <si>
-    <t>position_id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="180">
   <si>
     <t>po</t>
   </si>
@@ -65,63 +44,6 @@
     <t>coloris</t>
   </si>
   <si>
-    <t>Produit 1</t>
-  </si>
-  <si>
-    <t>Produit 2</t>
-  </si>
-  <si>
-    <t>Produit 3</t>
-  </si>
-  <si>
-    <t>Produit 4</t>
-  </si>
-  <si>
-    <t>Produit 5</t>
-  </si>
-  <si>
-    <t>Produit 6</t>
-  </si>
-  <si>
-    <t>Produit 7</t>
-  </si>
-  <si>
-    <t>Produit 8</t>
-  </si>
-  <si>
-    <t>Produit 9</t>
-  </si>
-  <si>
-    <t>Produit 10</t>
-  </si>
-  <si>
-    <t>Produit 11</t>
-  </si>
-  <si>
-    <t>Produit 12</t>
-  </si>
-  <si>
-    <t>Produit 13</t>
-  </si>
-  <si>
-    <t>Produit 14</t>
-  </si>
-  <si>
-    <t>Produit 15</t>
-  </si>
-  <si>
-    <t>Produit 16</t>
-  </si>
-  <si>
-    <t>Produit 17</t>
-  </si>
-  <si>
-    <t>Produit 18</t>
-  </si>
-  <si>
-    <t>Produit 19</t>
-  </si>
-  <si>
     <t>P 1</t>
   </si>
   <si>
@@ -179,72 +101,9 @@
     <t>P 19</t>
   </si>
   <si>
-    <t>Descriptions 1</t>
-  </si>
-  <si>
-    <t>Descriptions 3</t>
-  </si>
-  <si>
-    <t>Descriptions 4</t>
-  </si>
-  <si>
-    <t>Descriptions 7</t>
-  </si>
-  <si>
-    <t>Descriptions 9</t>
-  </si>
-  <si>
-    <t>Descriptions 8</t>
-  </si>
-  <si>
-    <t>Descriptions 2</t>
-  </si>
-  <si>
-    <t>Descriptions 5</t>
-  </si>
-  <si>
-    <t>Descriptions 6</t>
-  </si>
-  <si>
-    <t>Descriptions 10</t>
-  </si>
-  <si>
-    <t>Descriptions 11</t>
-  </si>
-  <si>
-    <t>Descriptions 12</t>
-  </si>
-  <si>
-    <t>Descriptions 13</t>
-  </si>
-  <si>
-    <t>Descriptions 14</t>
-  </si>
-  <si>
-    <t>Descriptions 15</t>
-  </si>
-  <si>
-    <t>Descriptions 16</t>
-  </si>
-  <si>
-    <t>Descriptions 17</t>
-  </si>
-  <si>
-    <t>Descriptions 18</t>
-  </si>
-  <si>
-    <t>Descriptions 19</t>
-  </si>
-  <si>
-    <t>Descriptions 20</t>
-  </si>
-  <si>
     <t>P 20</t>
   </si>
   <si>
-    <t>Produit 20</t>
-  </si>
-  <si>
     <t>po 11</t>
   </si>
   <si>
@@ -327,6 +186,396 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>brand 1</t>
+  </si>
+  <si>
+    <t>brand 2</t>
+  </si>
+  <si>
+    <t>brand 3</t>
+  </si>
+  <si>
+    <t>brand 4</t>
+  </si>
+  <si>
+    <t>brand 5</t>
+  </si>
+  <si>
+    <t>brand 6</t>
+  </si>
+  <si>
+    <t>brand 7</t>
+  </si>
+  <si>
+    <t>brand 8</t>
+  </si>
+  <si>
+    <t>brand 9</t>
+  </si>
+  <si>
+    <t>brand 10</t>
+  </si>
+  <si>
+    <t>brand 11</t>
+  </si>
+  <si>
+    <t>brand 12</t>
+  </si>
+  <si>
+    <t>brand 13</t>
+  </si>
+  <si>
+    <t>brand 14</t>
+  </si>
+  <si>
+    <t>brand 15</t>
+  </si>
+  <si>
+    <t>brand 16</t>
+  </si>
+  <si>
+    <t>brand 17</t>
+  </si>
+  <si>
+    <t>brand 18</t>
+  </si>
+  <si>
+    <t>brand 19</t>
+  </si>
+  <si>
+    <t>brand 20</t>
+  </si>
+  <si>
+    <t>type_de_commande 1</t>
+  </si>
+  <si>
+    <t>type_de_commande 2</t>
+  </si>
+  <si>
+    <t>type_de_commande 3</t>
+  </si>
+  <si>
+    <t>type_de_commande 4</t>
+  </si>
+  <si>
+    <t>type_de_commande 5</t>
+  </si>
+  <si>
+    <t>type_de_commande 6</t>
+  </si>
+  <si>
+    <t>type_de_commande 7</t>
+  </si>
+  <si>
+    <t>type_de_commande 8</t>
+  </si>
+  <si>
+    <t>type_de_commande 9</t>
+  </si>
+  <si>
+    <t>type_de_commande 10</t>
+  </si>
+  <si>
+    <t>type_de_commande 11</t>
+  </si>
+  <si>
+    <t>type_de_commande 12</t>
+  </si>
+  <si>
+    <t>type_de_commande 13</t>
+  </si>
+  <si>
+    <t>type_de_commande 14</t>
+  </si>
+  <si>
+    <t>type_de_commande 15</t>
+  </si>
+  <si>
+    <t>type_de_commande 16</t>
+  </si>
+  <si>
+    <t>type_de_commande 17</t>
+  </si>
+  <si>
+    <t>type_de_commande 18</t>
+  </si>
+  <si>
+    <t>type_de_commande 19</t>
+  </si>
+  <si>
+    <t>type_de_commande 20</t>
+  </si>
+  <si>
+    <t>reference 1</t>
+  </si>
+  <si>
+    <t>reference 2</t>
+  </si>
+  <si>
+    <t>reference 3</t>
+  </si>
+  <si>
+    <t>reference 4</t>
+  </si>
+  <si>
+    <t>reference 5</t>
+  </si>
+  <si>
+    <t>reference 6</t>
+  </si>
+  <si>
+    <t>reference 7</t>
+  </si>
+  <si>
+    <t>reference 8</t>
+  </si>
+  <si>
+    <t>reference 9</t>
+  </si>
+  <si>
+    <t>reference 10</t>
+  </si>
+  <si>
+    <t>reference 11</t>
+  </si>
+  <si>
+    <t>reference 12</t>
+  </si>
+  <si>
+    <t>reference 13</t>
+  </si>
+  <si>
+    <t>reference 14</t>
+  </si>
+  <si>
+    <t>reference 15</t>
+  </si>
+  <si>
+    <t>reference 16</t>
+  </si>
+  <si>
+    <t>reference 17</t>
+  </si>
+  <si>
+    <t>reference 18</t>
+  </si>
+  <si>
+    <t>reference 19</t>
+  </si>
+  <si>
+    <t>reference 20</t>
+  </si>
+  <si>
+    <t>type_de_produit 1</t>
+  </si>
+  <si>
+    <t>type_de_produit 2</t>
+  </si>
+  <si>
+    <t>type_de_produit 3</t>
+  </si>
+  <si>
+    <t>type_de_produit 4</t>
+  </si>
+  <si>
+    <t>type_de_produit 5</t>
+  </si>
+  <si>
+    <t>type_de_produit 6</t>
+  </si>
+  <si>
+    <t>type_de_produit 7</t>
+  </si>
+  <si>
+    <t>type_de_produit 8</t>
+  </si>
+  <si>
+    <t>type_de_produit 9</t>
+  </si>
+  <si>
+    <t>type_de_produit 10</t>
+  </si>
+  <si>
+    <t>type_de_produit 11</t>
+  </si>
+  <si>
+    <t>type_de_produit 12</t>
+  </si>
+  <si>
+    <t>type_de_produit 13</t>
+  </si>
+  <si>
+    <t>type_de_produit 14</t>
+  </si>
+  <si>
+    <t>type_de_produit 15</t>
+  </si>
+  <si>
+    <t>type_de_produit 16</t>
+  </si>
+  <si>
+    <t>type_de_produit 17</t>
+  </si>
+  <si>
+    <t>type_de_produit 18</t>
+  </si>
+  <si>
+    <t>type_de_produit 19</t>
+  </si>
+  <si>
+    <t>type_de_produit 20</t>
+  </si>
+  <si>
+    <t>30/02/2025</t>
+  </si>
+  <si>
+    <t>30/02/2026</t>
+  </si>
+  <si>
+    <t>30/02/2027</t>
+  </si>
+  <si>
+    <t>30/02/2028</t>
+  </si>
+  <si>
+    <t>30/02/2029</t>
+  </si>
+  <si>
+    <t>30/02/2030</t>
+  </si>
+  <si>
+    <t>30/02/2031</t>
+  </si>
+  <si>
+    <t>30/02/2032</t>
+  </si>
+  <si>
+    <t>30/02/2033</t>
+  </si>
+  <si>
+    <t>30/02/2034</t>
+  </si>
+  <si>
+    <t>30/02/2035</t>
+  </si>
+  <si>
+    <t>30/02/2036</t>
+  </si>
+  <si>
+    <t>30/02/2037</t>
+  </si>
+  <si>
+    <t>30/02/2038</t>
+  </si>
+  <si>
+    <t>30/02/2039</t>
+  </si>
+  <si>
+    <t>30/02/2040</t>
+  </si>
+  <si>
+    <t>30/02/2041</t>
+  </si>
+  <si>
+    <t>30/02/2042</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>date reception bon commande</t>
+  </si>
+  <si>
+    <t>date livraison commande</t>
+  </si>
+  <si>
+    <t>Chaine position</t>
+  </si>
+  <si>
+    <t>marque</t>
+  </si>
+  <si>
+    <t>type produit</t>
+  </si>
+  <si>
+    <t>type commande</t>
+  </si>
+  <si>
+    <t>30/02/2024</t>
+  </si>
+  <si>
+    <t>30/02/2043</t>
+  </si>
+  <si>
+    <t>etat commande</t>
+  </si>
+  <si>
+    <t>etat commande 1</t>
+  </si>
+  <si>
+    <t>etat commande 2</t>
+  </si>
+  <si>
+    <t>etat commande 3</t>
+  </si>
+  <si>
+    <t>etat commande 4</t>
+  </si>
+  <si>
+    <t>etat commande 5</t>
+  </si>
+  <si>
+    <t>etat commande 6</t>
+  </si>
+  <si>
+    <t>etat commande 7</t>
+  </si>
+  <si>
+    <t>etat commande 8</t>
+  </si>
+  <si>
+    <t>etat commande 9</t>
+  </si>
+  <si>
+    <t>etat commande 10</t>
+  </si>
+  <si>
+    <t>etat commande 11</t>
+  </si>
+  <si>
+    <t>etat commande 12</t>
+  </si>
+  <si>
+    <t>etat commande 13</t>
+  </si>
+  <si>
+    <t>etat commande 14</t>
+  </si>
+  <si>
+    <t>etat commande 15</t>
+  </si>
+  <si>
+    <t>etat commande 16</t>
+  </si>
+  <si>
+    <t>etat commande 17</t>
+  </si>
+  <si>
+    <t>etat commande 18</t>
+  </si>
+  <si>
+    <t>etat commande 19</t>
+  </si>
+  <si>
+    <t>etat commande 20</t>
+  </si>
+  <si>
+    <t>quantité</t>
   </si>
 </sst>
 </file>
@@ -368,13 +617,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -388,19 +650,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}" name="Tableau2" displayName="Tableau2" ref="A1:J21" totalsRowShown="0">
-  <autoFilter ref="A1:J21" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BD3325C1-6333-464A-90AA-F6FA45C0C0CC}" name="titre"/>
-    <tableColumn id="2" xr3:uid="{7E5A3177-9629-4487-A918-1D285D0CFBA1}" name="name"/>
-    <tableColumn id="3" xr3:uid="{A129C5B6-9E38-46D0-B103-AF0EC7340BF5}" name="qty"/>
-    <tableColumn id="4" xr3:uid="{98C57F7C-FC3A-457E-AB4D-6348C2B1D9B4}" name="date_reception_bon_commande"/>
-    <tableColumn id="5" xr3:uid="{CB0EA2E7-E815-4A71-9D15-33851489FBF7}" name="date_livraison_commande"/>
-    <tableColumn id="6" xr3:uid="{092B26A0-40B3-45FA-B6BA-3F8391731647}" name="descriptions"/>
-    <tableColumn id="7" xr3:uid="{F8BA6A43-B933-427C-AAD5-C9A34EDD72B7}" name="position_id"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}" name="Tableau2" displayName="Tableau2" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21" xr:uid="{EBBBF35D-40F2-4E2B-97E9-1726964490EC}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{BD3325C1-6333-464A-90AA-F6FA45C0C0CC}" name="id"/>
+    <tableColumn id="2" xr3:uid="{7E5A3177-9629-4487-A918-1D285D0CFBA1}" name="style"/>
+    <tableColumn id="3" xr3:uid="{A129C5B6-9E38-46D0-B103-AF0EC7340BF5}" name="quantité"/>
+    <tableColumn id="4" xr3:uid="{98C57F7C-FC3A-457E-AB4D-6348C2B1D9B4}" name="date reception bon commande" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{CB0EA2E7-E815-4A71-9D15-33851489FBF7}" name="date livraison commande" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{F8BA6A43-B933-427C-AAD5-C9A34EDD72B7}" name="Chaine position"/>
     <tableColumn id="8" xr3:uid="{A1C9D3C6-5087-4973-879B-58F504F718DD}" name="po"/>
     <tableColumn id="9" xr3:uid="{19423DF3-92E4-4CDC-A338-71BA9E7322BA}" name="coloris"/>
-    <tableColumn id="10" xr3:uid="{740AC26D-B256-423B-9040-341558B8C1BC}" name="id"/>
+    <tableColumn id="11" xr3:uid="{3264B7E0-C6F1-425F-AB7F-3D345B2625DF}" name="marque"/>
+    <tableColumn id="12" xr3:uid="{44F1FBCF-AB4D-435F-A73A-620F2613E042}" name="type commande"/>
+    <tableColumn id="13" xr3:uid="{EDF38D20-DB66-40E1-8F8E-80B85648A35C}" name="etat commande"/>
+    <tableColumn id="14" xr3:uid="{A64B8008-53CB-4A52-9C75-4FBB9BE53543}" name="reference"/>
+    <tableColumn id="15" xr3:uid="{AC14A04F-DAED-4BF5-B3B7-8C1F66E997D5}" name="type produit"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,570 +988,883 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33853D51-7360-4E02-82C9-88F8BDB946D4}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="28.7265625" customWidth="1"/>
-    <col min="5" max="5" width="63.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2">
+      <c r="D2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>130</v>
       </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4">
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>40</v>
       </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>162</v>
+      </c>
+      <c r="L5" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7">
+      <c r="D7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>837</v>
       </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9">
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>166</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="I10" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>19</v>
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L11" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12">
         <v>2</v>
       </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>20</v>
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>30</v>
       </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13">
+      <c r="D13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>21</v>
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14">
+      <c r="D14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15">
         <v>6</v>
       </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
-      </c>
-      <c r="J15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16">
         <v>6</v>
       </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>24</v>
+        <v>65</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17">
+      <c r="D17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17">
         <v>5</v>
       </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>98</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18">
+      <c r="D18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>26</v>
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19">
+      <c r="D19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19">
         <v>1</v>
       </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>27</v>
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
-      <c r="F20" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20">
+      <c r="D20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="J20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21">
+      <c r="D21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21">
         <v>3</v>
       </c>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
